--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11b.xlsx
@@ -546,34 +546,34 @@
         <v>0.9840117515485773</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N2">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O2">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P2">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q2">
-        <v>0.1350469865555555</v>
+        <v>0.4029937467244443</v>
       </c>
       <c r="R2">
-        <v>1.215422879</v>
+        <v>3.626943720519999</v>
       </c>
       <c r="S2">
-        <v>0.01019492000762494</v>
+        <v>0.03094893297250209</v>
       </c>
       <c r="T2">
-        <v>0.01019492000762494</v>
+        <v>0.03094893297250209</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>20.79327</v>
       </c>
       <c r="O3">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P3">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q3">
         <v>12.34722855506667</v>
@@ -632,10 +632,10 @@
         <v>111.1250569956</v>
       </c>
       <c r="S3">
-        <v>0.9321126716365722</v>
+        <v>0.9482369194383904</v>
       </c>
       <c r="T3">
-        <v>0.9321126716365722</v>
+        <v>0.9482369194383905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,34 +670,34 @@
         <v>0.9840117515485773</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N4">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O4">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P4">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q4">
-        <v>0.5524340669377777</v>
+        <v>0.06283923185777777</v>
       </c>
       <c r="R4">
-        <v>4.97190660244</v>
+        <v>0.5655530867199999</v>
       </c>
       <c r="S4">
-        <v>0.04170415990438015</v>
+        <v>0.004825899137684849</v>
       </c>
       <c r="T4">
-        <v>0.04170415990438015</v>
+        <v>0.004825899137684849</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02894466666666667</v>
+        <v>0.02894466666666666</v>
       </c>
       <c r="H5">
-        <v>0.08683400000000001</v>
+        <v>0.08683399999999999</v>
       </c>
       <c r="I5">
-        <v>0.01598824845142268</v>
+        <v>0.01598824845142267</v>
       </c>
       <c r="J5">
-        <v>0.01598824845142268</v>
+        <v>0.01598824845142267</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N5">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O5">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P5">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q5">
-        <v>0.002194246938888889</v>
+        <v>0.006547852845111109</v>
       </c>
       <c r="R5">
-        <v>0.01974822245</v>
+        <v>0.05893067560599999</v>
       </c>
       <c r="S5">
-        <v>0.0001656473246053919</v>
+        <v>0.0005028590653435535</v>
       </c>
       <c r="T5">
-        <v>0.000165647324605392</v>
+        <v>0.0005028590653435535</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02894466666666667</v>
+        <v>0.02894466666666666</v>
       </c>
       <c r="H6">
-        <v>0.08683400000000001</v>
+        <v>0.08683399999999999</v>
       </c>
       <c r="I6">
-        <v>0.01598824845142268</v>
+        <v>0.01598824845142267</v>
       </c>
       <c r="J6">
-        <v>0.01598824845142268</v>
+        <v>0.01598824845142267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>20.79327</v>
       </c>
       <c r="O6">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P6">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q6">
-        <v>0.2006180896866667</v>
+        <v>0.2006180896866666</v>
       </c>
       <c r="R6">
         <v>1.80556280718</v>
       </c>
       <c r="S6">
-        <v>0.01514499085543612</v>
+        <v>0.01540697805176997</v>
       </c>
       <c r="T6">
-        <v>0.01514499085543612</v>
+        <v>0.01540697805176997</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02894466666666667</v>
+        <v>0.02894466666666666</v>
       </c>
       <c r="H7">
-        <v>0.08683400000000001</v>
+        <v>0.08683399999999999</v>
       </c>
       <c r="I7">
-        <v>0.01598824845142268</v>
+        <v>0.01598824845142267</v>
       </c>
       <c r="J7">
-        <v>0.01598824845142268</v>
+        <v>0.01598824845142267</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N7">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O7">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P7">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q7">
-        <v>0.008975963042444446</v>
+        <v>0.001021013468444444</v>
       </c>
       <c r="R7">
-        <v>0.080783667382</v>
+        <v>0.009189121215999999</v>
       </c>
       <c r="S7">
-        <v>0.0006776102713811678</v>
+        <v>7.841133430915411E-05</v>
       </c>
       <c r="T7">
-        <v>0.0006776102713811678</v>
+        <v>7.841133430915412E-05</v>
       </c>
     </row>
   </sheetData>
